--- a/DOC/単体テスト/OpenAI連携機能_プログラム詳細設計書.xlsx
+++ b/DOC/単体テスト/OpenAI連携機能_プログラム詳細設計書.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="表紙" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="改訂履歴" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="モジュール構成" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ファイル一覧" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="関数仕様" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="クラス実装" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="データベース" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="エラー処理" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="テスト仕様" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="表紙" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="改訂履歴" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="モジュール構成" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ファイル一覧" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="関数仕様" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="クラス実装" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="データベース" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="エラー処理" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="テスト仕様" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,7 +507,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025年05月16日</t>
+          <t>2025年05月19日</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -636,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>app.routes.llm</t>
+          <t>app.api.v1.endpoints.llm</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>app.utils.openai_client, app.prompts.chat_prompt</t>
+          <t>app.services.llm_service, app.prompts.chat_prompt</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>app.dependencies</t>
+          <t>app.api.v1.dependencies.auth</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -844,6 +844,33 @@
       <c r="E9" s="4" t="inlineStr">
         <is>
           <t>インフラチーム</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>MOD-007</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>app.services.llm_service</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>LLM関連のビジネスロジックを提供するサービスモジュール</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>app.utils.openai_client</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>AI開発チーム</t>
         </is>
       </c>
     </row>
@@ -858,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -915,7 +942,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>app/routes/llm.py</t>
+          <t>app/api/v1/endpoints/llm.py</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -925,7 +952,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>app/utils/openai_client.py, app/prompts/chat_prompt.py</t>
+          <t>app/services/llm_service.py, app/prompts/chat_prompt.py</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -1033,7 +1060,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>app/routes/llm.py</t>
+          <t>app/api/v1/router.py</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -1066,6 +1093,33 @@
       <c r="E9" s="4" t="inlineStr">
         <is>
           <t>~10</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>FILE-007</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>app/services/llm_service.py</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>LLM関連のビジネスロジックを提供するサービスファイル</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>app/utils/openai_client.py</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>~60</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1407,7 @@
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>Pydanticの標準的なモデル実装。Field()を使用して各フィールドに説明を追加し、Swagger UIでのドキュメント表示を改善。</t>
+          <t>Pydanticの標準的なモデル実装。Field()を使用して各フィールドに説明を追加し、Swagger UIでのドキュメント表示を改善。from_attributes = Trueを使用してORMモデルとの変換を可能にします。</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1441,7 @@
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>Pydanticの標準的なモデル実装。Field()を使用して各フィールドに説明を追加し、Swagger UIでのドキュメント表示を改善。</t>
+          <t>Pydanticの標準的なモデル実装。Field()を使用して各フィールドに説明を追加し、Swagger UIでのドキュメント表示を改善。from_attributes = Trueを使用してORMモデルとの変換を可能にします。</t>
         </is>
       </c>
     </row>
